--- a/Documents/Obsticle positioning.xlsx
+++ b/Documents/Obsticle positioning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s191265\Documents\MeanBeanStudio\MeanBeanStudio\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD900E90-459F-4FC6-98E8-3B01A5EA6572}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C214D65B-2F14-4AB1-82EC-DCC148D0BB1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C1565F42-A131-4FF6-90EF-ACB1D2A58EC7}"/>
   </bookViews>
@@ -610,7 +610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C26A79-D8D7-4A8A-9D2E-67F8F9A2BC13}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Obsticle positioning.xlsx
+++ b/Documents/Obsticle positioning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s191265\Documents\MeanBeanStudio\MeanBeanStudio\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C214D65B-2F14-4AB1-82EC-DCC148D0BB1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066B0F98-2652-470F-86F6-D2FF21F8DD94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C1565F42-A131-4FF6-90EF-ACB1D2A58EC7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>Left</t>
   </si>
@@ -62,12 +62,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>Definate</t>
-  </si>
-  <si>
-    <t>optional (</t>
-  </si>
-  <si>
     <t>Rocks (large)</t>
   </si>
   <si>
@@ -116,7 +110,10 @@
     <t>archway/ tunnel</t>
   </si>
   <si>
-    <t>Yes</t>
+    <t>Definite</t>
+  </si>
+  <si>
+    <t>Optional</t>
   </si>
 </sst>
 </file>
@@ -262,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -279,7 +276,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -610,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C26A79-D8D7-4A8A-9D2E-67F8F9A2BC13}">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,58 +645,58 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="14"/>
+        <v>20</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>9</v>
       </c>
       <c r="J2" s="8"/>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="17"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="7"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="J3" s="9"/>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="13"/>
+      <c r="G4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="12"/>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="7"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -709,291 +705,301 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="20" t="s">
+      <c r="F6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="7"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+        <v>10</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="19" t="s">
+      <c r="F8" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="7"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="18"/>
+        <v>24</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="7"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+        <v>12</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="7"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="A14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="7"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="15"/>
       <c r="E17" s="7"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="18"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>18</v>
+      <c r="F18" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="2"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+      <c r="A22" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="2"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="18"/>
+        <v>11</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="17"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="12" t="s">
+      <c r="F24" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="2"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="14"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="12" t="s">
+      <c r="F28" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="19" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="2"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+        <v>25</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>28</v>
+      <c r="F30" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">

--- a/Documents/Obsticle positioning.xlsx
+++ b/Documents/Obsticle positioning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s191265\Documents\MeanBeanStudio\MeanBeanStudio\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066B0F98-2652-470F-86F6-D2FF21F8DD94}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80F68FD-F034-498F-99A5-9508E54144FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C1565F42-A131-4FF6-90EF-ACB1D2A58EC7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>Left</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Optional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">risks/ may cause problems </t>
   </si>
 </sst>
 </file>
@@ -607,7 +610,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,6 +703,10 @@
       <c r="E5" s="7"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
+      <c r="J5" s="20"/>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
